--- a/data/trans_camb/P36B08_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>9.123508940542568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26.4577447984964</v>
+        <v>26.45774479849637</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>12.94387096459543</v>
@@ -655,7 +655,7 @@
         <v>7.592108858736935</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>23.53788552003043</v>
+        <v>23.5378855200304</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.945715677229339</v>
@@ -664,7 +664,7 @@
         <v>8.678689597630573</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>25.43043897690829</v>
+        <v>25.43043897690828</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.223162802929886</v>
+        <v>1.239381159364082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.780781715669486</v>
+        <v>2.905913767916949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21.55899740704575</v>
+        <v>21.8916117653371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.015719503109251</v>
+        <v>6.704190978915296</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6924670910865987</v>
+        <v>0.9224351320577325</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.33665218610501</v>
+        <v>18.87987323666556</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.462945114413017</v>
+        <v>5.285147354854032</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.312438321765984</v>
+        <v>4.329368113273393</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>22.18870036346529</v>
+        <v>22.16059619700681</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.42673399951365</v>
+        <v>13.82742214850518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.45690945675261</v>
+        <v>15.27816943989399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31.54118082491732</v>
+        <v>30.7306280251993</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.98427058581538</v>
+        <v>19.26040953249721</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.63544087118413</v>
+        <v>13.80634897800025</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.41523698227306</v>
+        <v>28.84879402276808</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.32647209755006</v>
+        <v>14.49365433469137</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.13092649355272</v>
+        <v>13.07670880616435</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>29.0894412814068</v>
+        <v>29.00462167270736</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1304119762235258</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.378188568463707</v>
+        <v>0.3781885684637067</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1738357934733109</v>
@@ -760,7 +760,7 @@
         <v>0.1019617911213887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3161130868231222</v>
+        <v>0.3161130868231217</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1386553374337327</v>
@@ -769,7 +769,7 @@
         <v>0.1209914573967913</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3545311581251087</v>
+        <v>0.3545311581251085</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01425975218952882</v>
+        <v>0.01851445486453064</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03855280795783216</v>
+        <v>0.04123209174338211</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2921436361229834</v>
+        <v>0.2958475978342221</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.07569610656858478</v>
+        <v>0.08663309739693491</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008892464327615101</v>
+        <v>0.01128517356608443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2354272554101853</v>
+        <v>0.241567804587366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07285546819833902</v>
+        <v>0.07104424309694908</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05809437352206982</v>
+        <v>0.05664243309910111</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2986896411958682</v>
+        <v>0.295930496835113</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1994329230539242</v>
+        <v>0.2097530174330434</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2176874180768635</v>
+        <v>0.2351365981449408</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.483430692612685</v>
+        <v>0.4660070055995094</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2688417467232452</v>
+        <v>0.2734196109664602</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1924109490605233</v>
+        <v>0.1958397418265741</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4139000715701344</v>
+        <v>0.4191865143133673</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2052341719835024</v>
+        <v>0.2106867084965523</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1894234948208721</v>
+        <v>0.1900075864993322</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4275501207738522</v>
+        <v>0.4216493747406585</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>14.24226762758162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31.27342679371204</v>
+        <v>31.27342679371209</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.955937610156941</v>
@@ -878,7 +878,7 @@
         <v>12.2376662507532</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>29.76796615975258</v>
+        <v>29.76796615975257</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.974041172452199</v>
+        <v>3.495856066324248</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.919551976230635</v>
+        <v>7.742328345905928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.98344261839978</v>
+        <v>25.89106459288497</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.980900249003801</v>
+        <v>2.890368428257106</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.776820262855845</v>
+        <v>3.617242504150596</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.25469621824923</v>
+        <v>23.53040398153798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.098763222796022</v>
+        <v>5.87333940998956</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.264108552781686</v>
+        <v>7.839630297844696</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.07052889795717</v>
+        <v>25.75310383895091</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.19383383979887</v>
+        <v>17.34957333503021</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.30915979110236</v>
+        <v>20.82563708594089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.512539015798</v>
+        <v>36.50199895913982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.75690783429359</v>
+        <v>16.76959679419639</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.71728049568367</v>
+        <v>16.55270828550837</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>33.2487565607987</v>
+        <v>33.232074261262</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.81048137792288</v>
+        <v>15.0270413167598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.11322409858673</v>
+        <v>17.1018015065093</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>33.4617369366451</v>
+        <v>33.74774295932069</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2212482855128905</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.485820955001713</v>
+        <v>0.4858209550017136</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1445483222152065</v>
@@ -983,7 +983,7 @@
         <v>0.1836404085896907</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4467029379988683</v>
+        <v>0.4467029379988682</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06144803656827505</v>
+        <v>0.04805493455893962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1153922187431576</v>
+        <v>0.1128327825954161</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3776302422466406</v>
+        <v>0.3777040194627319</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04223744443569615</v>
+        <v>0.03912028362603828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05240974529565996</v>
+        <v>0.05185026144152535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3201131300078069</v>
+        <v>0.3222992721556481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07355558886726089</v>
+        <v>0.08481772907680943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1039068819724666</v>
+        <v>0.1128640117845519</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3741216450057324</v>
+        <v>0.3670447829932315</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3043111475326918</v>
+        <v>0.2812920378342186</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3533620215505166</v>
+        <v>0.3390307866736273</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6109360377204477</v>
+        <v>0.6122540155994746</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2609349292063529</v>
+        <v>0.2556237176539533</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2569243493695124</v>
+        <v>0.2573998195469927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5201664312874525</v>
+        <v>0.5193449787049318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2326149881107535</v>
+        <v>0.2376435273855667</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2496068436240666</v>
+        <v>0.2668476113447871</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5266262704975726</v>
+        <v>0.5364806911460757</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.611027194924869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32.82357845527746</v>
+        <v>32.82357845527745</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>11.21137862028726</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.659329977902527</v>
+        <v>5.768012173639085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.496531440700336</v>
+        <v>0.6994320911901514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27.88461682572839</v>
+        <v>27.90923271439504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.951239337074504</v>
+        <v>2.374422595608118</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5389337230469855</v>
+        <v>1.000266446746294</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.43695195923027</v>
+        <v>18.18726689710877</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.83060425782457</v>
+        <v>7.289833168130665</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.349388478944343</v>
+        <v>2.958525321608776</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>27.40475865294568</v>
+        <v>27.24710585643226</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.32283575155186</v>
+        <v>16.95199352191915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.17045797120086</v>
+        <v>12.99806564085688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.55404927015435</v>
+        <v>37.07785178867795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.91332407396901</v>
+        <v>19.92110404900182</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.38524950941271</v>
+        <v>19.28930393757053</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.80005658697381</v>
+        <v>33.78040100451519</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.9176715168386</v>
+        <v>16.67085124737325</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.07350690096038</v>
+        <v>13.25325346901428</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>34.87093376030149</v>
+        <v>35.15879913454074</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1220238568158651</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5262442946310651</v>
+        <v>0.5262442946310649</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.161204086092244</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1035109827706393</v>
+        <v>0.0876637046881035</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0242516552869465</v>
+        <v>0.01059499755045032</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4219947432013097</v>
+        <v>0.4234097507557234</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03805638093702502</v>
+        <v>0.03276254808847318</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008394461881027125</v>
+        <v>0.01456582653985444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2371819744951887</v>
+        <v>0.2441858070467797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1178192895094857</v>
+        <v>0.1075666484750134</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04953021557715422</v>
+        <v>0.04441777555588874</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4108284574556375</v>
+        <v>0.408334526243153</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2955379012900688</v>
+        <v>0.2867906216461187</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2245619550088065</v>
+        <v>0.2168525917313679</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6463859568655528</v>
+        <v>0.6334233012677183</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3363415732524693</v>
+        <v>0.3142106059217128</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3104428607519867</v>
+        <v>0.2981735666821467</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5338411702656819</v>
+        <v>0.5518630257396351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2799262218568114</v>
+        <v>0.2730851192675191</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2115472042284859</v>
+        <v>0.2158319493529262</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5809836074073442</v>
+        <v>0.5825981009420189</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.070611916324841</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>27.52460362552797</v>
+        <v>27.52460362552796</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.389341450271396</v>
+        <v>2.44467410655958</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.501167471613286</v>
+        <v>2.86719916754812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26.02634464892182</v>
+        <v>26.48717620691913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.356175773734133</v>
+        <v>3.063854660061172</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1763158453190665</v>
+        <v>-0.009266603782272134</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.60144181549825</v>
+        <v>20.59608538810413</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.784931769339148</v>
+        <v>3.823084370893696</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.88062240344319</v>
+        <v>3.139769225592003</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.20549457426125</v>
+        <v>25.33211755888579</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.19963775736256</v>
+        <v>10.16183481174313</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.310990081927</v>
+        <v>10.6548264114564</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32.73307897953526</v>
+        <v>32.38257180456279</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.39109321229199</v>
+        <v>11.98515287068973</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.260961512962615</v>
+        <v>9.19908763678445</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.99221526123983</v>
+        <v>27.7215080656254</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.740560193535575</v>
+        <v>9.723430485033594</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.037096903600919</v>
+        <v>8.907430021881682</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>29.8113874603085</v>
+        <v>29.80664317487203</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.0905582893437972</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4105979847749687</v>
+        <v>0.4105979847749686</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0361310847054095</v>
+        <v>0.0372812252163685</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03900259377730159</v>
+        <v>0.04307011363890666</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3856037001886736</v>
+        <v>0.3968158704584019</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03234334085304464</v>
+        <v>0.04091296942001092</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.002254062967265555</v>
+        <v>0.0002817826160087385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.279364692931046</v>
+        <v>0.2780598797752299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05453308648188476</v>
+        <v>0.05622447100468825</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0419895774412141</v>
+        <v>0.04597951660808044</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3653020894808597</v>
+        <v>0.3671066123597321</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1644540950130256</v>
+        <v>0.1624062312581278</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1619749604582833</v>
+        <v>0.1714259599320379</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5237209587656066</v>
+        <v>0.518801100097843</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1667896364779706</v>
+        <v>0.1729762898335459</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1349837764360358</v>
+        <v>0.1344842490265419</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4165139270316348</v>
+        <v>0.4081968543789684</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1489988804892591</v>
+        <v>0.1507444240266505</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1380378225960091</v>
+        <v>0.1369267867780643</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4594518494807441</v>
+        <v>0.4577001582535328</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.94014011772284</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34.4867856810468</v>
+        <v>34.48678568104677</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.778324452646224</v>
@@ -1520,7 +1520,7 @@
         <v>9.306626884204682</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>28.06857069417866</v>
+        <v>28.06857069417863</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.056376270225928</v>
+        <v>5.793569402108804</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.034255712586311</v>
+        <v>7.691720667127811</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28.37888960411499</v>
+        <v>28.36329485989904</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.181343128675392</v>
+        <v>2.59923499838308</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.880982364838859</v>
+        <v>2.261067117263171</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>19.68817899443219</v>
+        <v>20.61231754229417</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.875726466246585</v>
+        <v>5.205070966814233</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.297743157350205</v>
+        <v>5.551623762231946</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>24.5385549151313</v>
+        <v>24.985562360796</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.67592729437537</v>
+        <v>18.76307725392494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.30167051758097</v>
+        <v>21.16219082648275</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40.22321596263151</v>
+        <v>40.59083170121403</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.13582274967752</v>
+        <v>13.05203144515311</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.20563078064344</v>
+        <v>12.21617525072778</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>28.0325100806775</v>
+        <v>28.37636968374317</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.13998194614494</v>
+        <v>13.26019049671569</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.17523904999766</v>
+        <v>13.21553832960149</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>31.45710833743501</v>
+        <v>31.93809432622782</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2378755431354249</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5884849654017734</v>
+        <v>0.588484965401773</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1096511774244704</v>
@@ -1625,7 +1625,7 @@
         <v>0.140523697803787</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4238162112964157</v>
+        <v>0.4238162112964152</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08063609022896891</v>
+        <v>0.08740796561911497</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1097837523497599</v>
+        <v>0.1220953689542303</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4483949974742943</v>
+        <v>0.4478136122749297</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02932518060589756</v>
+        <v>0.035417165488569</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02484704911282165</v>
+        <v>0.03056454918160615</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2628330019813993</v>
+        <v>0.2784542037268092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07044323081449115</v>
+        <v>0.07353325170940543</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07698512759179416</v>
+        <v>0.08000378662696901</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3562964965946562</v>
+        <v>0.3629124423054099</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3506993035269863</v>
+        <v>0.3422397212833214</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3737228223116488</v>
+        <v>0.396149270757877</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7506521142646685</v>
+        <v>0.7670355266678872</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1782951335127149</v>
+        <v>0.1920390387588525</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1789712434074587</v>
+        <v>0.1804501637882002</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4138179587102838</v>
+        <v>0.426370301949587</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2071187910211649</v>
+        <v>0.2067711018187425</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2061555476033753</v>
+        <v>0.2067489555092877</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4976145550083019</v>
+        <v>0.5058342990398333</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.326630524964015</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>23.85941648436408</v>
+        <v>23.8594164843641</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.708265645305532</v>
@@ -1734,7 +1734,7 @@
         <v>5.359649380287856</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>26.40136986757959</v>
+        <v>26.4013698675796</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.29264024382638</v>
+        <v>-9.914248916512195</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.328404268331603</v>
+        <v>1.77058619331587</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29.04229075741484</v>
+        <v>29.29644718334391</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.934471247025183</v>
+        <v>3.77921214036368</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.059971372452558</v>
+        <v>0.7232228406482993</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>20.90072292879911</v>
+        <v>20.65195882395974</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.522649712809482</v>
+        <v>2.622340693154658</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.829259764917533</v>
+        <v>2.22606710231185</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>23.63018987562394</v>
+        <v>23.2067907137768</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.082923545281737</v>
+        <v>6.285856803764444</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>19.45910910986812</v>
+        <v>18.3640547881433</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>45.78521575539439</v>
+        <v>45.43083536299371</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.10117012296127</v>
+        <v>11.24114562460867</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.120798822625531</v>
+        <v>7.84490870771823</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>26.9774837297407</v>
+        <v>26.72198416853021</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.097860547791312</v>
+        <v>9.200870300769868</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.887135898955311</v>
+        <v>8.753037871218369</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>29.27825613838314</v>
+        <v>28.86453113534209</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.0607189775853699</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3348377834333698</v>
+        <v>0.3348377834333701</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.08456877157559721</v>
@@ -1839,7 +1839,7 @@
         <v>0.07940397177198898</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3911400688666948</v>
+        <v>0.3911400688666949</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1836599812211911</v>
+        <v>-0.1851376316557953</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06150332452135199</v>
+        <v>0.0311152745052495</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5224468656521366</v>
+        <v>0.5354063036016226</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.05404120609259116</v>
+        <v>0.0512770925410158</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01506980865921568</v>
+        <v>0.01077644901974499</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2860063220623409</v>
+        <v>0.2827922101953471</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0368108072928457</v>
+        <v>0.03833873792744492</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.02739099780711636</v>
+        <v>0.03181632842480576</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.340016091848051</v>
+        <v>0.3347583785631302</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1309998545233797</v>
+        <v>0.1306378957572338</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4242829886578454</v>
+        <v>0.3826784187093696</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9735760947895397</v>
+        <v>0.9755000759618215</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1606930478775274</v>
+        <v>0.1627165614080584</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1178843846370989</v>
+        <v>0.1122963585446473</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3938764551780757</v>
+        <v>0.388009644726407</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1384489663216585</v>
+        <v>0.1400556647834376</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1350396469151609</v>
+        <v>0.1331844527546501</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4482080406860688</v>
+        <v>0.4401778058685267</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>6.268810515037848</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>24.67664906715733</v>
+        <v>24.67664906715734</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>8.237778439353061</v>
@@ -1948,7 +1948,7 @@
         <v>7.678485504538591</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>27.86647510173066</v>
+        <v>27.86647510173065</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.775485630899775</v>
+        <v>5.475214405515934</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.743106164601699</v>
+        <v>6.652616022652174</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29.36598422912562</v>
+        <v>29.14760498146597</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.298167357846116</v>
+        <v>6.459803829250686</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.19128350172398</v>
+        <v>4.071530150719197</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>23.06739821758586</v>
+        <v>22.92648069498825</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.674565114712709</v>
+        <v>6.743375645759622</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>6.04548823426586</v>
+        <v>6.234324735298495</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>26.62510745699678</v>
+        <v>26.55589392359883</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.47089171550587</v>
+        <v>10.31941483987877</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.39597717920244</v>
+        <v>11.34941722596738</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>33.11586172468268</v>
+        <v>33.11712620086761</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.32752381714758</v>
+        <v>10.44115416437435</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.391394618252852</v>
+        <v>8.404319244998852</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>26.36255335738326</v>
+        <v>26.31296508373791</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.950042113295147</v>
+        <v>9.889250105590142</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.282834750617912</v>
+        <v>9.268634898106439</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>29.0807913943805</v>
+        <v>29.19310503084296</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.08815137870404473</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3470005405088663</v>
+        <v>0.3470005405088665</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1225472443551634</v>
@@ -2053,7 +2053,7 @@
         <v>0.1142270633192908</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4145486260343088</v>
+        <v>0.4145486260343086</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08947353004626932</v>
+        <v>0.08427576529615649</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1057217420065415</v>
+        <v>0.1028927986353359</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4530358835019165</v>
+        <v>0.4497645512388829</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.08731115830160097</v>
+        <v>0.08959047462364099</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.05773088526009446</v>
+        <v>0.05623840085067808</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3182946056548369</v>
+        <v>0.3151400716078845</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.098127248220336</v>
+        <v>0.09945531797710383</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08808728947258321</v>
+        <v>0.09156951942510036</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3892832075069433</v>
+        <v>0.3893097361530086</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.168718734739394</v>
+        <v>0.1641152507703446</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1845565959218202</v>
+        <v>0.1841416314469089</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5358888718353133</v>
+        <v>0.5362607494096009</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.14727521652824</v>
+        <v>0.1494655569932041</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.119939879257906</v>
+        <v>0.1190323361517617</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3785766892043572</v>
+        <v>0.3780042598448906</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1505964584051163</v>
+        <v>0.1489506711641761</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.140037317173627</v>
+        <v>0.1391633234917075</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4390215946480623</v>
+        <v>0.4420426436816723</v>
       </c>
     </row>
     <row r="46">
